--- a/PRACA/summary.xlsx
+++ b/PRACA/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Git\magisterka\PRACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB786D93-2E22-4BFE-83E0-C31C9BD55A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B91DD-765F-4F30-9178-B13B8B45B397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0.9913419913419913</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>10</v>
